--- a/005-cai_gen_tan/src/main/resources/data/fo_guang_cai_gen_tan.xlsx
+++ b/005-cai_gen_tan/src/main/resources/data/fo_guang_cai_gen_tan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvin_cheung/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvin_cheung/Documents/Practice_Spring_Boot/005-cai_gen_tan/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C00FB-3760-5448-966B-3C99092834DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9005F054-EB79-CC41-AAD3-20BC20AC0CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53800" yWindow="4000" windowWidth="29600" windowHeight="21600" xr2:uid="{2F3E5720-4434-284C-9368-32EAB02DC105}"/>
   </bookViews>
@@ -1044,52 +1044,6 @@
 為自己開發了良田土地</t>
   </si>
   <si>
-    <t>因為世事「無常」
-　　 所以文明才得以進步
-　　 因為生命「無常」
-　　 所以未來才抱有希望</t>
-  </si>
-  <si>
-    <t>能夠「安住佛國」
-　　 是時「眾苦不侵稱極樂」
-　　 能夠「遠離輪迴」
-　　 是時「自性彌陀是吾家」
-　　 能夠「淨念相續」
-　　 是時「六根坐蓮台現」
-　　 能夠「圓成佛果」
-　　 是時「西方淨土隨心生」</t>
-  </si>
-  <si>
-    <t>To abide in the Buddha's pureland of ultimate bliss,be free from defilements.
-　　 To end the cycle of birth and death,realize that your true nature is the same as Amitabha Buddha's.
-　　 To purify your thoughts,be free from the tyranny of six senses.
-　　 To attain Buddhahood,let your mind be absorbed by the pureland.</t>
-  </si>
-  <si>
-    <t>高山不辭土壤，故能成其高
-　　 大海不擇細流，故能成其大
-　　 天地無私，故能覆載萬物
-　　 真如無相，故能遍一切處</t>
-  </si>
-  <si>
-    <t>A mountain is high because it does not shun rocks.
-　　 An ocean is great because it does not shun streams.
-　　 Because heaven and earth are selfless,they contain everything.
-　　 Because Buddha nature is formless,it is everywhere.</t>
-  </si>
-  <si>
-    <t>用信心體驗佛道
-　　 用慧解深入法海
-　　 用修持廣結善緣
-　　 用證悟實踐佛法</t>
-  </si>
-  <si>
-    <t>Experience the way of the Buddha through faith.
-　　 Delve into Buddhist teachings with intelligence and understanding.
-　　 Create good affinity with others through practice and cultivation.
-　　 Carry out Buddhist teachings until you attain enlightenment.</t>
-  </si>
-  <si>
     <t>Having no form,space can fill any void.
 Having no form,water can nourish any field.</t>
   </si>
@@ -1111,6 +1065,52 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>To abide in the Buddha's pureland of ultimate bliss,be free from defilements.
+To end the cycle of birth and death,realize that your true nature is the same as Amitabha Buddha's.
+To purify your thoughts,be free from the tyranny of six senses.
+To attain Buddhahood,let your mind be absorbed by the pureland.</t>
+  </si>
+  <si>
+    <t>A mountain is high because it does not shun rocks.
+An ocean is great because it does not shun streams.
+Because heaven and earth are selfless,they contain everything.
+Because Buddha nature is formless,it is everywhere.</t>
+  </si>
+  <si>
+    <t>Experience the way of the Buddha through faith.
+Delve into Buddhist teachings with intelligence and understanding.
+Create good affinity with others through practice and cultivation.
+Carry out Buddhist teachings until you attain enlightenment.</t>
+  </si>
+  <si>
+    <t>因為世事「無常」
+所以文明才得以進步
+因為生命「無常」
+所以未來才抱有希望</t>
+  </si>
+  <si>
+    <t>能夠「安住佛國」
+是時「眾苦不侵稱極樂」
+能夠「遠離輪迴」
+是時「自性彌陀是吾家」
+能夠「淨念相續」
+是時「六根坐蓮台現」
+能夠「圓成佛果」
+是時「西方淨土隨心生」</t>
+  </si>
+  <si>
+    <t>高山不辭土壤，故能成其高
+大海不擇細流，故能成其大
+天地無私，故能覆載萬物
+真如無相，故能遍一切處</t>
+  </si>
+  <si>
+    <t>用信心體驗佛道
+用慧解深入法海
+用修持廣結善緣
+用證悟實踐佛法</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1170,6 +1170,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,34 +1493,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06081D35-95E4-DD49-8209-B64753368F34}">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="91.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="104.6640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1525,7 +1531,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1536,7 +1542,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1547,7 +1553,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1558,7 +1564,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1569,7 +1575,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1580,7 +1586,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1591,7 +1597,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1602,7 +1608,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1613,7 +1619,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1624,7 +1630,7 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1635,7 +1641,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1646,7 +1652,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1657,7 +1663,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1668,7 +1674,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1679,7 +1685,7 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1690,7 +1696,7 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1701,7 +1707,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1712,7 +1718,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1723,7 +1729,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1734,7 +1740,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1745,7 +1751,7 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1756,7 +1762,7 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1767,7 +1773,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1778,7 +1784,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1789,7 +1795,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1800,7 +1806,7 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1811,7 +1817,7 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1822,7 +1828,7 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1833,7 +1839,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1844,7 +1850,7 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1855,7 +1861,7 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1866,7 +1872,7 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1877,7 +1883,7 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1888,7 +1894,7 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1899,7 +1905,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1910,7 +1916,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1921,7 +1927,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1932,7 +1938,7 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1943,7 +1949,7 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1954,7 +1960,7 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1965,7 +1971,7 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1976,7 +1982,7 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1987,7 +1993,7 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1998,7 +2004,7 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2009,7 +2015,7 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2020,7 +2026,7 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2031,7 +2037,7 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2042,7 +2048,7 @@
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2053,7 +2059,7 @@
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2064,7 +2070,7 @@
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2075,7 +2081,7 @@
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2086,7 +2092,7 @@
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2097,7 +2103,7 @@
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2108,7 +2114,7 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2119,7 +2125,7 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2130,7 +2136,7 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2141,7 +2147,7 @@
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2152,7 +2158,7 @@
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2163,7 +2169,7 @@
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2174,7 +2180,7 @@
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2185,7 +2191,7 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2196,7 +2202,7 @@
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2207,7 +2213,7 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2218,7 +2224,7 @@
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2229,7 +2235,7 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2240,7 +2246,7 @@
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2251,7 +2257,7 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2262,7 +2268,7 @@
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2273,7 +2279,7 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2284,7 +2290,7 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2295,7 +2301,7 @@
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2306,7 +2312,7 @@
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2317,7 +2323,7 @@
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2328,7 +2334,7 @@
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2339,7 +2345,7 @@
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2350,7 +2356,7 @@
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2361,7 +2367,7 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2372,7 +2378,7 @@
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2383,7 +2389,7 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2394,7 +2400,7 @@
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2405,7 +2411,7 @@
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2416,7 +2422,7 @@
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2427,7 +2433,7 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2438,7 +2444,7 @@
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2449,7 +2455,7 @@
       <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2460,7 +2466,7 @@
       <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2471,7 +2477,7 @@
       <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2482,7 +2488,7 @@
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2493,7 +2499,7 @@
       <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2504,55 +2510,55 @@
       <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>189</v>
+      <c r="B92" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>180</v>
+      <c r="B93" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>181</v>
+      <c r="B94" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>183</v>
+      <c r="B95" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>185</v>
+      <c r="B96" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/005-cai_gen_tan/src/main/resources/data/fo_guang_cai_gen_tan.xlsx
+++ b/005-cai_gen_tan/src/main/resources/data/fo_guang_cai_gen_tan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvin_cheung/Documents/Practice_Spring_Boot/005-cai_gen_tan/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9005F054-EB79-CC41-AAD3-20BC20AC0CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC853700-A918-9348-ABE3-C621867FB3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53800" yWindow="4000" windowWidth="29600" windowHeight="21600" xr2:uid="{2F3E5720-4434-284C-9368-32EAB02DC105}"/>
+    <workbookView xWindow="49240" yWindow="9600" windowWidth="17740" windowHeight="16640" xr2:uid="{2F3E5720-4434-284C-9368-32EAB02DC105}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1154,7 +1154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1170,12 +1170,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,14 +1488,14 @@
   <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="91.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="104.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1520,7 +1514,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1531,7 +1525,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1542,7 +1536,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1553,7 +1547,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1564,7 +1558,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1575,7 +1569,7 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1586,7 +1580,7 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1597,7 +1591,7 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1608,7 +1602,7 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1619,7 +1613,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1630,7 +1624,7 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1641,7 +1635,7 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1652,7 +1646,7 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1663,7 +1657,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1674,7 +1668,7 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1685,7 +1679,7 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1696,7 +1690,7 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1707,7 +1701,7 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1718,7 +1712,7 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1729,7 +1723,7 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1740,7 +1734,7 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1751,7 +1745,7 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1762,7 +1756,7 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1773,7 +1767,7 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1784,7 +1778,7 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1795,7 +1789,7 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1806,7 +1800,7 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1817,7 +1811,7 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1828,7 +1822,7 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1839,7 +1833,7 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1850,7 +1844,7 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1861,7 +1855,7 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1872,7 +1866,7 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1883,7 +1877,7 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1894,7 +1888,7 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1905,7 +1899,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1916,7 +1910,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1927,7 +1921,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1938,7 +1932,7 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1949,7 +1943,7 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1960,7 +1954,7 @@
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1971,7 +1965,7 @@
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1982,7 +1976,7 @@
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1993,7 +1987,7 @@
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2004,7 +1998,7 @@
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2015,7 +2009,7 @@
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2026,7 +2020,7 @@
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2037,7 +2031,7 @@
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2048,7 +2042,7 @@
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2059,7 +2053,7 @@
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2070,7 +2064,7 @@
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2081,7 +2075,7 @@
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2092,7 +2086,7 @@
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2103,7 +2097,7 @@
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2114,7 +2108,7 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2125,7 +2119,7 @@
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2136,7 +2130,7 @@
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2147,7 +2141,7 @@
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2158,7 +2152,7 @@
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2169,7 +2163,7 @@
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2180,7 +2174,7 @@
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2191,7 +2185,7 @@
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2202,7 +2196,7 @@
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2213,7 +2207,7 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2224,7 +2218,7 @@
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2235,7 +2229,7 @@
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2246,7 +2240,7 @@
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2257,7 +2251,7 @@
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2268,7 +2262,7 @@
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2279,7 +2273,7 @@
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2290,7 +2284,7 @@
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2301,7 +2295,7 @@
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2312,7 +2306,7 @@
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2323,7 +2317,7 @@
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2334,7 +2328,7 @@
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2345,7 +2339,7 @@
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2356,7 +2350,7 @@
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2367,7 +2361,7 @@
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2378,7 +2372,7 @@
       <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2389,7 +2383,7 @@
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2400,7 +2394,7 @@
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2411,7 +2405,7 @@
       <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2422,7 +2416,7 @@
       <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2433,7 +2427,7 @@
       <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2444,7 +2438,7 @@
       <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2455,7 +2449,7 @@
       <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2466,7 +2460,7 @@
       <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2477,7 +2471,7 @@
       <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2488,7 +2482,7 @@
       <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2499,7 +2493,7 @@
       <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -2510,7 +2504,7 @@
       <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -2521,7 +2515,7 @@
       <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -2532,7 +2526,7 @@
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -2543,7 +2537,7 @@
       <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2554,7 +2548,7 @@
       <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C96" s="2" t="s">
